--- a/data/processed/Pesos_Palmawasi/__bbdd_revision__Pw_incrementos_pesos.xlsx
+++ b/data/processed/Pesos_Palmawasi/__bbdd_revision__Pw_incrementos_pesos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cesar_quezada\ProyectosIA\Proyectos_PALMAS\PROYECTO_01_analitica_descriptiva_TEA\data\processed\Pesos_Palmawasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C31D1D7-B95F-46CE-9DD4-C59893FD737F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B8C25B-0D09-4D2E-8855-66C9AF3B5C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,10 +103,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -211,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -249,6 +250,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4398,64 +4400,64 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B59" s="10">
-        <v>8.6435163572742976E-4</v>
+        <v>8.6435163572742997E-4</v>
       </c>
       <c r="C59" s="10">
-        <v>2.5283382888575051E-4</v>
+        <v>2.5283382888575099E-4</v>
       </c>
       <c r="D59" s="10">
-        <v>1.4168502514910883E-4</v>
+        <v>1.4168502514910899E-4</v>
       </c>
       <c r="E59" s="10">
-        <v>3.7688197872451888E-4</v>
+        <v>3.7688197872451899E-4</v>
       </c>
       <c r="F59" s="10">
-        <v>5.0333483233835474E-4</v>
+        <v>5.0333483233835495E-4</v>
       </c>
       <c r="G59" s="10">
-        <v>3.1808089068834447E-4</v>
+        <v>3.1808089068834398E-4</v>
       </c>
       <c r="H59" s="10">
-        <v>3.4403958023830936E-4</v>
+        <v>3.4403958023830898E-4</v>
       </c>
       <c r="I59" s="10">
-        <v>9.1018556770547962E-5</v>
+        <v>9.1018556770548002E-5</v>
       </c>
       <c r="J59" s="10">
-        <v>1.5971687300628929E-4</v>
+        <v>1.5971687300628899E-4</v>
       </c>
       <c r="K59" s="10">
-        <v>2.5422511713892954E-4</v>
+        <v>2.5422511713893003E-4</v>
       </c>
       <c r="L59" s="10">
-        <v>2.4223327710013931E-4</v>
+        <v>2.4223327710013899E-4</v>
       </c>
       <c r="M59" s="10">
-        <v>6.5064526275587515E-4</v>
+        <v>6.5064526275587504E-4</v>
       </c>
       <c r="N59" s="10">
-        <v>6.0751928271180324E-4</v>
+        <v>6.0751928271180302E-4</v>
       </c>
       <c r="O59" s="10">
-        <v>8.7086356292619994E-4</v>
+        <v>8.7086356292620005E-4</v>
       </c>
       <c r="P59" s="10">
-        <v>3.4128060705641594E-4</v>
+        <v>3.41280607056416E-4</v>
       </c>
       <c r="Q59" s="10">
-        <v>1.2795888141435951E-4</v>
+        <v>1.2795888141435999E-4</v>
       </c>
       <c r="R59" s="10">
-        <v>1.3848603222745771E-4</v>
+        <v>1.3848603222745801E-4</v>
       </c>
       <c r="S59" s="10">
-        <v>5.9467386154534038E-4</v>
+        <v>5.9467386154534005E-4</v>
       </c>
       <c r="T59" s="10">
-        <v>1.7537390025029897E-4</v>
+        <v>1.7537390025029899E-4</v>
       </c>
       <c r="U59" s="10">
-        <v>1.8254066657836707E-4</v>
+        <v>1.8254066657836699E-4</v>
       </c>
       <c r="V59">
         <v>6.3602512346870197E-4</v>
@@ -4526,47 +4528,47 @@
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
         <f>+(-1)*(B60*B59)/100</f>
-        <v>-8.6435163572742978E-5</v>
+        <v>-8.6435163572742992E-5</v>
       </c>
       <c r="C62" s="12">
         <f>+(C60*C59)/100</f>
-        <v>2.5283382888575051E-4</v>
+        <v>2.5283382888575099E-4</v>
       </c>
       <c r="D62" s="12">
         <f t="shared" ref="D62:U62" si="6">+(-1)*(D60*D59)/100</f>
-        <v>-1.4168502514910882E-5</v>
+        <v>-1.41685025149109E-5</v>
       </c>
       <c r="E62" s="12">
         <f t="shared" si="6"/>
-        <v>-3.7688197872451885E-5</v>
+        <v>-3.7688197872451899E-5</v>
       </c>
       <c r="F62" s="12">
         <f t="shared" si="6"/>
-        <v>-5.0333483233835475E-5</v>
+        <v>-5.0333483233835489E-5</v>
       </c>
       <c r="G62" s="12">
         <f t="shared" si="6"/>
-        <v>-3.1808089068834448E-6</v>
+        <v>-3.1808089068834397E-6</v>
       </c>
       <c r="H62" s="12">
         <f>+(H60*H59)/100</f>
-        <v>3.4403958023830936E-4</v>
+        <v>3.4403958023830898E-4</v>
       </c>
       <c r="I62" s="12">
         <f t="shared" si="6"/>
-        <v>-9.1018556770547959E-7</v>
+        <v>-9.1018556770548002E-7</v>
       </c>
       <c r="J62" s="12">
         <f t="shared" si="6"/>
-        <v>-1.5971687300628928E-6</v>
+        <v>-1.5971687300628899E-6</v>
       </c>
       <c r="K62" s="12">
         <f t="shared" si="6"/>
-        <v>-2.5422511713892953E-6</v>
+        <v>-2.5422511713893004E-6</v>
       </c>
       <c r="L62" s="12">
         <f t="shared" si="6"/>
-        <v>-2.4223327710013929E-5</v>
+        <v>-2.4223327710013899E-5</v>
       </c>
       <c r="M62" s="12">
         <f t="shared" si="6"/>
@@ -4574,35 +4576,35 @@
       </c>
       <c r="N62" s="12">
         <f t="shared" si="6"/>
-        <v>-6.0751928271180326E-6</v>
+        <v>-6.07519282711803E-6</v>
       </c>
       <c r="O62" s="12">
         <f t="shared" si="6"/>
-        <v>-8.708635629262E-5</v>
+        <v>-8.7086356292620013E-5</v>
       </c>
       <c r="P62" s="12">
         <f t="shared" si="6"/>
-        <v>-3.4128060705641595E-6</v>
+        <v>-3.4128060705641599E-6</v>
       </c>
       <c r="Q62" s="12">
         <f t="shared" si="6"/>
-        <v>-1.2795888141435952E-5</v>
+        <v>-1.2795888141435999E-5</v>
       </c>
       <c r="R62" s="12">
         <f t="shared" si="6"/>
-        <v>-1.3848603222745771E-6</v>
+        <v>-1.3848603222745801E-6</v>
       </c>
       <c r="S62" s="12">
         <f t="shared" si="6"/>
-        <v>-5.9467386154534034E-6</v>
+        <v>-5.9467386154534008E-6</v>
       </c>
       <c r="T62" s="12">
         <f t="shared" si="6"/>
-        <v>-1.7537390025029896E-6</v>
+        <v>-1.7537390025029898E-6</v>
       </c>
       <c r="U62" s="12">
         <f t="shared" si="6"/>
-        <v>-1.8254066657836708E-2</v>
+        <v>-1.8254066657836698E-2</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -4629,6 +4631,17 @@
       </c>
       <c r="U64">
         <v>1.8249999999999999E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H74" s="13">
+        <f>+H73-1</f>
+        <v>4.9999999999998934E-3</v>
       </c>
     </row>
   </sheetData>
